--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02589133333333334</v>
+        <v>0.08897633333333334</v>
       </c>
       <c r="H2">
-        <v>0.07767400000000001</v>
+        <v>0.266929</v>
       </c>
       <c r="I2">
-        <v>0.004658582669675427</v>
+        <v>0.01166961909325238</v>
       </c>
       <c r="J2">
-        <v>0.004696039738046181</v>
+        <v>0.01190636343604672</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1921113333333333</v>
+        <v>16.872633</v>
       </c>
       <c r="N2">
-        <v>0.576334</v>
+        <v>50.617899</v>
       </c>
       <c r="O2">
-        <v>0.00871996116177164</v>
+        <v>0.5478487790187504</v>
       </c>
       <c r="P2">
-        <v>0.008735527624601397</v>
+        <v>0.5478487790187505</v>
       </c>
       <c r="Q2">
-        <v>0.004974018568444444</v>
+        <v>1.501265018019</v>
       </c>
       <c r="R2">
-        <v>0.044766167116</v>
+        <v>13.511385162171</v>
       </c>
       <c r="S2">
-        <v>4.062265994847216E-05</v>
+        <v>0.006393186571852213</v>
       </c>
       <c r="T2">
-        <v>4.102238485792832E-05</v>
+        <v>0.006522886670991689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,25 +593,25 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02589133333333334</v>
+        <v>0.08897633333333334</v>
       </c>
       <c r="H3">
-        <v>0.07767400000000001</v>
+        <v>0.266929</v>
       </c>
       <c r="I3">
-        <v>0.004658582669675427</v>
+        <v>0.01166961909325238</v>
       </c>
       <c r="J3">
-        <v>0.004696039738046181</v>
+        <v>0.01190636343604672</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,33 +620,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.45734966666667</v>
+        <v>13.925342</v>
       </c>
       <c r="N3">
-        <v>31.372049</v>
+        <v>41.776026</v>
       </c>
       <c r="O3">
-        <v>0.4746606114600159</v>
+        <v>0.4521512209812496</v>
       </c>
       <c r="P3">
-        <v>0.4755079531657835</v>
+        <v>0.4521512209812496</v>
       </c>
       <c r="Q3">
-        <v>0.2707547260028889</v>
+        <v>1.239025871572667</v>
       </c>
       <c r="R3">
-        <v>2.436792534026</v>
+        <v>11.151232844154</v>
       </c>
       <c r="S3">
-        <v>0.002211245698525171</v>
+        <v>0.005276432521400166</v>
       </c>
       <c r="T3">
-        <v>0.002233004243823522</v>
+        <v>0.00538347676505503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.02589133333333334</v>
+        <v>3.632128333333334</v>
       </c>
       <c r="H4">
-        <v>0.07767400000000001</v>
+        <v>10.896385</v>
       </c>
       <c r="I4">
-        <v>0.004658582669675427</v>
+        <v>0.4763688563004725</v>
       </c>
       <c r="J4">
-        <v>0.004696039738046181</v>
+        <v>0.4860330647816007</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.117777</v>
+        <v>16.872633</v>
       </c>
       <c r="N4">
-        <v>0.235554</v>
+        <v>50.617899</v>
       </c>
       <c r="O4">
-        <v>0.005345915037547559</v>
+        <v>0.5478487790187504</v>
       </c>
       <c r="P4">
-        <v>0.003570305541726425</v>
+        <v>0.5478487790187505</v>
       </c>
       <c r="Q4">
-        <v>0.003049403566</v>
+        <v>61.28356837723501</v>
       </c>
       <c r="R4">
-        <v>0.018296421396</v>
+        <v>551.552115395115</v>
       </c>
       <c r="S4">
-        <v>2.490438714747632E-05</v>
+        <v>0.2609780962867724</v>
       </c>
       <c r="T4">
-        <v>1.676629670091379E-05</v>
+        <v>0.2662726211033412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,22 +720,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.02589133333333334</v>
+        <v>3.632128333333334</v>
       </c>
       <c r="H5">
-        <v>0.07767400000000001</v>
+        <v>10.896385</v>
       </c>
       <c r="I5">
-        <v>0.004658582669675427</v>
+        <v>0.4763688563004725</v>
       </c>
       <c r="J5">
-        <v>0.004696039738046181</v>
+        <v>0.4860330647816007</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.26397633333333</v>
+        <v>13.925342</v>
       </c>
       <c r="N5">
-        <v>33.791929</v>
+        <v>41.776026</v>
       </c>
       <c r="O5">
-        <v>0.5112735123406649</v>
+        <v>0.4521512209812496</v>
       </c>
       <c r="P5">
-        <v>0.5121862136678889</v>
+        <v>0.4521512209812496</v>
       </c>
       <c r="Q5">
-        <v>0.2916393659051111</v>
+        <v>50.57862922955668</v>
       </c>
       <c r="R5">
-        <v>2.624754293146001</v>
+        <v>455.20766306601</v>
       </c>
       <c r="S5">
-        <v>0.002381809924054307</v>
+        <v>0.2153907600137001</v>
       </c>
       <c r="T5">
-        <v>0.002405246812663818</v>
+        <v>0.2197604436782596</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.632128333333334</v>
+        <v>1.962678</v>
       </c>
       <c r="H6">
-        <v>10.896385</v>
+        <v>5.888033999999999</v>
       </c>
       <c r="I6">
-        <v>0.6535225470956983</v>
+        <v>0.2574134469769833</v>
       </c>
       <c r="J6">
-        <v>0.6587771578784449</v>
+        <v>0.262635654903738</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1921113333333333</v>
+        <v>16.872633</v>
       </c>
       <c r="N6">
-        <v>0.576334</v>
+        <v>50.617899</v>
       </c>
       <c r="O6">
-        <v>0.00871996116177164</v>
+        <v>0.5478487790187504</v>
       </c>
       <c r="P6">
-        <v>0.008735527624601397</v>
+        <v>0.5478487790187505</v>
       </c>
       <c r="Q6">
-        <v>0.6977730169544445</v>
+        <v>33.115545591174</v>
       </c>
       <c r="R6">
-        <v>6.279957152590001</v>
+        <v>298.039910320566</v>
       </c>
       <c r="S6">
-        <v>0.005698691229016567</v>
+        <v>0.1410236426293481</v>
       </c>
       <c r="T6">
-        <v>0.005754766061103552</v>
+        <v>0.1438846228658028</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.632128333333334</v>
+        <v>1.962678</v>
       </c>
       <c r="H7">
-        <v>10.896385</v>
+        <v>5.888033999999999</v>
       </c>
       <c r="I7">
-        <v>0.6535225470956983</v>
+        <v>0.2574134469769833</v>
       </c>
       <c r="J7">
-        <v>0.6587771578784449</v>
+        <v>0.262635654903738</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.45734966666667</v>
+        <v>13.925342</v>
       </c>
       <c r="N7">
-        <v>31.372049</v>
+        <v>41.776026</v>
       </c>
       <c r="O7">
-        <v>0.4746606114600159</v>
+        <v>0.4521512209812496</v>
       </c>
       <c r="P7">
-        <v>0.4755079531657835</v>
+        <v>0.4521512209812496</v>
       </c>
       <c r="Q7">
-        <v>37.98243601587389</v>
+        <v>27.330962385876</v>
       </c>
       <c r="R7">
-        <v>341.8419241428651</v>
+        <v>245.978661472884</v>
       </c>
       <c r="S7">
-        <v>0.3102014118073512</v>
+        <v>0.1163898043476351</v>
       </c>
       <c r="T7">
-        <v>0.3132537779351515</v>
+        <v>0.1187510320379353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>3.632128333333334</v>
+        <v>0.45482</v>
       </c>
       <c r="H8">
-        <v>10.896385</v>
+        <v>0.90964</v>
       </c>
       <c r="I8">
-        <v>0.6535225470956983</v>
+        <v>0.0596515495430588</v>
       </c>
       <c r="J8">
-        <v>0.6587771578784449</v>
+        <v>0.04057447649362016</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.117777</v>
+        <v>16.872633</v>
       </c>
       <c r="N8">
-        <v>0.235554</v>
+        <v>50.617899</v>
       </c>
       <c r="O8">
-        <v>0.005345915037547559</v>
+        <v>0.5478487790187504</v>
       </c>
       <c r="P8">
-        <v>0.003570305541726425</v>
+        <v>0.5478487790187505</v>
       </c>
       <c r="Q8">
-        <v>0.427781178715</v>
+        <v>7.674010941060001</v>
       </c>
       <c r="R8">
-        <v>2.56668707229</v>
+        <v>46.04406564636</v>
       </c>
       <c r="S8">
-        <v>0.003493676011895277</v>
+        <v>0.03268002858374126</v>
       </c>
       <c r="T8">
-        <v>0.002352035737536196</v>
+        <v>0.0222286774063548</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,22 +968,22 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>3.632128333333334</v>
+        <v>0.45482</v>
       </c>
       <c r="H9">
-        <v>10.896385</v>
+        <v>0.90964</v>
       </c>
       <c r="I9">
-        <v>0.6535225470956983</v>
+        <v>0.0596515495430588</v>
       </c>
       <c r="J9">
-        <v>0.6587771578784449</v>
+        <v>0.04057447649362016</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.26397633333333</v>
+        <v>13.925342</v>
       </c>
       <c r="N9">
-        <v>33.791929</v>
+        <v>41.776026</v>
       </c>
       <c r="O9">
-        <v>0.5112735123406649</v>
+        <v>0.4521512209812496</v>
       </c>
       <c r="P9">
-        <v>0.5121862136678889</v>
+        <v>0.4521512209812496</v>
       </c>
       <c r="Q9">
-        <v>40.91220758629612</v>
+        <v>6.33352404844</v>
       </c>
       <c r="R9">
-        <v>368.2098682766651</v>
+        <v>38.00114429064</v>
       </c>
       <c r="S9">
-        <v>0.3341287680474352</v>
+        <v>0.02697152095931754</v>
       </c>
       <c r="T9">
-        <v>0.3374165781446538</v>
+        <v>0.01834579908726536</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.033372666666667</v>
+        <v>1.486010666666667</v>
       </c>
       <c r="H10">
-        <v>3.100118</v>
+        <v>4.458032</v>
       </c>
       <c r="I10">
-        <v>0.1859329503920082</v>
+        <v>0.194896528086233</v>
       </c>
       <c r="J10">
-        <v>0.1874279336796386</v>
+        <v>0.1988504403849946</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1921113333333333</v>
+        <v>16.872633</v>
       </c>
       <c r="N10">
-        <v>0.576334</v>
+        <v>50.617899</v>
       </c>
       <c r="O10">
-        <v>0.00871996116177164</v>
+        <v>0.5478487790187504</v>
       </c>
       <c r="P10">
-        <v>0.008735527624601397</v>
+        <v>0.5478487790187505</v>
       </c>
       <c r="Q10">
-        <v>0.1985226008235556</v>
+        <v>25.072912612752</v>
       </c>
       <c r="R10">
-        <v>1.786703407412</v>
+        <v>225.656213514768</v>
       </c>
       <c r="S10">
-        <v>0.001621328106111924</v>
+        <v>0.1067738249470364</v>
       </c>
       <c r="T10">
-        <v>0.001637281892280441</v>
+        <v>0.1089399709722601</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.033372666666667</v>
+        <v>1.486010666666667</v>
       </c>
       <c r="H11">
-        <v>3.100118</v>
+        <v>4.458032</v>
       </c>
       <c r="I11">
-        <v>0.1859329503920082</v>
+        <v>0.194896528086233</v>
       </c>
       <c r="J11">
-        <v>0.1874279336796386</v>
+        <v>0.1988504403849946</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,648 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.45734966666667</v>
+        <v>13.925342</v>
       </c>
       <c r="N11">
-        <v>31.372049</v>
+        <v>41.776026</v>
       </c>
       <c r="O11">
-        <v>0.4746606114600159</v>
+        <v>0.4521512209812496</v>
       </c>
       <c r="P11">
-        <v>0.4755079531657835</v>
+        <v>0.4521512209812496</v>
       </c>
       <c r="Q11">
-        <v>10.80633931130911</v>
+        <v>20.69320674898134</v>
       </c>
       <c r="R11">
-        <v>97.25705380178202</v>
+        <v>186.238860740832</v>
       </c>
       <c r="S11">
-        <v>0.08825504792363542</v>
+        <v>0.08812270313919668</v>
       </c>
       <c r="T11">
-        <v>0.08912347311009716</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.033372666666667</v>
-      </c>
-      <c r="H12">
-        <v>3.100118</v>
-      </c>
-      <c r="I12">
-        <v>0.1859329503920082</v>
-      </c>
-      <c r="J12">
-        <v>0.1874279336796386</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.5</v>
-      </c>
-      <c r="M12">
-        <v>0.117777</v>
-      </c>
-      <c r="N12">
-        <v>0.235554</v>
-      </c>
-      <c r="O12">
-        <v>0.005345915037547559</v>
-      </c>
-      <c r="P12">
-        <v>0.003570305541726425</v>
-      </c>
-      <c r="Q12">
-        <v>0.121707532562</v>
-      </c>
-      <c r="R12">
-        <v>0.7302451953719999</v>
-      </c>
-      <c r="S12">
-        <v>0.000993981755476221</v>
-      </c>
-      <c r="T12">
-        <v>0.0006691749902907465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.033372666666667</v>
-      </c>
-      <c r="H13">
-        <v>3.100118</v>
-      </c>
-      <c r="I13">
-        <v>0.1859329503920082</v>
-      </c>
-      <c r="J13">
-        <v>0.1874279336796386</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>11.26397633333333</v>
-      </c>
-      <c r="N13">
-        <v>33.791929</v>
-      </c>
-      <c r="O13">
-        <v>0.5112735123406649</v>
-      </c>
-      <c r="P13">
-        <v>0.5121862136678889</v>
-      </c>
-      <c r="Q13">
-        <v>11.63988526084689</v>
-      </c>
-      <c r="R13">
-        <v>104.758967347622</v>
-      </c>
-      <c r="S13">
-        <v>0.09506259260678462</v>
-      </c>
-      <c r="T13">
-        <v>0.09599800368697027</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.1329915</v>
-      </c>
-      <c r="H14">
-        <v>0.265983</v>
-      </c>
-      <c r="I14">
-        <v>0.023928929774988</v>
-      </c>
-      <c r="J14">
-        <v>0.01608088598044052</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.1921113333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.576334</v>
-      </c>
-      <c r="O14">
-        <v>0.00871996116177164</v>
-      </c>
-      <c r="P14">
-        <v>0.008735527624601397</v>
-      </c>
-      <c r="Q14">
-        <v>0.025549174387</v>
-      </c>
-      <c r="R14">
-        <v>0.153295046322</v>
-      </c>
-      <c r="S14">
-        <v>0.0002086593382806564</v>
-      </c>
-      <c r="T14">
-        <v>0.0001404750237102035</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.1329915</v>
-      </c>
-      <c r="H15">
-        <v>0.265983</v>
-      </c>
-      <c r="I15">
-        <v>0.023928929774988</v>
-      </c>
-      <c r="J15">
-        <v>0.01608088598044052</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>10.45734966666667</v>
-      </c>
-      <c r="N15">
-        <v>31.372049</v>
-      </c>
-      <c r="O15">
-        <v>0.4746606114600159</v>
-      </c>
-      <c r="P15">
-        <v>0.4755079531657835</v>
-      </c>
-      <c r="Q15">
-        <v>1.3907386181945</v>
-      </c>
-      <c r="R15">
-        <v>8.344431709167001</v>
-      </c>
-      <c r="S15">
-        <v>0.01135812043857959</v>
-      </c>
-      <c r="T15">
-        <v>0.007646589177651615</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.1329915</v>
-      </c>
-      <c r="H16">
-        <v>0.265983</v>
-      </c>
-      <c r="I16">
-        <v>0.023928929774988</v>
-      </c>
-      <c r="J16">
-        <v>0.01608088598044052</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.5</v>
-      </c>
-      <c r="M16">
-        <v>0.117777</v>
-      </c>
-      <c r="N16">
-        <v>0.235554</v>
-      </c>
-      <c r="O16">
-        <v>0.005345915037547559</v>
-      </c>
-      <c r="P16">
-        <v>0.003570305541726425</v>
-      </c>
-      <c r="Q16">
-        <v>0.0156633398955</v>
-      </c>
-      <c r="R16">
-        <v>0.062653359582</v>
-      </c>
-      <c r="S16">
-        <v>0.0001279220255165279</v>
-      </c>
-      <c r="T16">
-        <v>5.741367633183756E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="G17">
-        <v>0.1329915</v>
-      </c>
-      <c r="H17">
-        <v>0.265983</v>
-      </c>
-      <c r="I17">
-        <v>0.023928929774988</v>
-      </c>
-      <c r="J17">
-        <v>0.01608088598044052</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>11.26397633333333</v>
-      </c>
-      <c r="N17">
-        <v>33.791929</v>
-      </c>
-      <c r="O17">
-        <v>0.5112735123406649</v>
-      </c>
-      <c r="P17">
-        <v>0.5121862136678889</v>
-      </c>
-      <c r="Q17">
-        <v>1.4980131085345</v>
-      </c>
-      <c r="R17">
-        <v>8.988078651206999</v>
-      </c>
-      <c r="S17">
-        <v>0.01223422797261123</v>
-      </c>
-      <c r="T17">
-        <v>0.008236408102746867</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.7333866666666667</v>
-      </c>
-      <c r="H18">
-        <v>2.20016</v>
-      </c>
-      <c r="I18">
-        <v>0.1319569900676299</v>
-      </c>
-      <c r="J18">
-        <v>0.1330179827234298</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.1921113333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.576334</v>
-      </c>
-      <c r="O18">
-        <v>0.00871996116177164</v>
-      </c>
-      <c r="P18">
-        <v>0.008735527624601397</v>
-      </c>
-      <c r="Q18">
-        <v>0.1408918903822222</v>
-      </c>
-      <c r="R18">
-        <v>1.26802701344</v>
-      </c>
-      <c r="S18">
-        <v>0.001150659828414019</v>
-      </c>
-      <c r="T18">
-        <v>0.001161982262649272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.7333866666666667</v>
-      </c>
-      <c r="H19">
-        <v>2.20016</v>
-      </c>
-      <c r="I19">
-        <v>0.1319569900676299</v>
-      </c>
-      <c r="J19">
-        <v>0.1330179827234298</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>10.45734966666667</v>
-      </c>
-      <c r="N19">
-        <v>31.372049</v>
-      </c>
-      <c r="O19">
-        <v>0.4746606114600159</v>
-      </c>
-      <c r="P19">
-        <v>0.4755079531657835</v>
-      </c>
-      <c r="Q19">
-        <v>7.669280814204446</v>
-      </c>
-      <c r="R19">
-        <v>69.02352732784001</v>
-      </c>
-      <c r="S19">
-        <v>0.06263478559192447</v>
-      </c>
-      <c r="T19">
-        <v>0.06325110869905966</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.7333866666666667</v>
-      </c>
-      <c r="H20">
-        <v>2.20016</v>
-      </c>
-      <c r="I20">
-        <v>0.1319569900676299</v>
-      </c>
-      <c r="J20">
-        <v>0.1330179827234298</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.5</v>
-      </c>
-      <c r="M20">
-        <v>0.117777</v>
-      </c>
-      <c r="N20">
-        <v>0.235554</v>
-      </c>
-      <c r="O20">
-        <v>0.005345915037547559</v>
-      </c>
-      <c r="P20">
-        <v>0.003570305541726425</v>
-      </c>
-      <c r="Q20">
-        <v>0.08637608144</v>
-      </c>
-      <c r="R20">
-        <v>0.5182564886400001</v>
-      </c>
-      <c r="S20">
-        <v>0.0007054308575120568</v>
-      </c>
-      <c r="T20">
-        <v>0.0004749148408667312</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.7333866666666667</v>
-      </c>
-      <c r="H21">
-        <v>2.20016</v>
-      </c>
-      <c r="I21">
-        <v>0.1319569900676299</v>
-      </c>
-      <c r="J21">
-        <v>0.1330179827234298</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>11.26397633333333</v>
-      </c>
-      <c r="N21">
-        <v>33.791929</v>
-      </c>
-      <c r="O21">
-        <v>0.5112735123406649</v>
-      </c>
-      <c r="P21">
-        <v>0.5121862136678889</v>
-      </c>
-      <c r="Q21">
-        <v>8.260850056515556</v>
-      </c>
-      <c r="R21">
-        <v>74.34765050864002</v>
-      </c>
-      <c r="S21">
-        <v>0.06746611378977938</v>
-      </c>
-      <c r="T21">
-        <v>0.06812997692085417</v>
+        <v>0.08991046941273448</v>
       </c>
     </row>
   </sheetData>
